--- a/Optimization/Gurobi/5 districts/Excel files/1-G to S.xlsx
+++ b/Optimization/Gurobi/5 districts/Excel files/1-G to S.xlsx
@@ -354,7 +354,7 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>773832</v>
+        <v>39648</v>
       </c>
     </row>
   </sheetData>
